--- a/第3篇Excel自动化/第7章读写工作表/excel/合并工作表.xlsx
+++ b/第3篇Excel自动化/第7章读写工作表/excel/合并工作表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13920" windowHeight="7470" activeTab="2"/>
+    <workbookView windowWidth="16635" windowHeight="7470" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="第一个表" sheetId="1" r:id="rId1"/>
+    <sheet name="第二个表" sheetId="2" r:id="rId2"/>
+    <sheet name="第三个表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C3"/>
+      <selection activeCell="C1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>

--- a/第3篇Excel自动化/第7章读写工作表/excel/合并工作表.xlsx
+++ b/第3篇Excel自动化/第7章读写工作表/excel/合并工作表.xlsx
@@ -86,10 +86,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,138 +566,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,13 +1017,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1058,7 +1068,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1067,7 +1077,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1109,7 +1119,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1121,7 +1131,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
